--- a/SchedulingData/static7/pso/scheduling1_6.xlsx
+++ b/SchedulingData/static7/pso/scheduling1_6.xlsx
@@ -466,264 +466,264 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>79.90000000000001</v>
+        <v>73.28</v>
       </c>
       <c r="E2" t="n">
-        <v>24.68</v>
+        <v>24.852</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>53.98</v>
+        <v>59.34</v>
       </c>
       <c r="E3" t="n">
-        <v>27.272</v>
+        <v>26.256</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>79.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8</v>
+        <v>48.3</v>
       </c>
       <c r="E4" t="n">
-        <v>20.9</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>153.8</v>
+        <v>59.34</v>
       </c>
       <c r="D5" t="n">
-        <v>218.8</v>
+        <v>118.7</v>
       </c>
       <c r="E5" t="n">
-        <v>16.04</v>
+        <v>21.94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>75.58</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>25.632</v>
+        <v>24.06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>53.98</v>
+        <v>73.28</v>
       </c>
       <c r="D7" t="n">
-        <v>96.58</v>
+        <v>114</v>
       </c>
       <c r="E7" t="n">
-        <v>24.632</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>48.3</v>
       </c>
       <c r="D8" t="n">
-        <v>66.40000000000001</v>
+        <v>122.38</v>
       </c>
       <c r="E8" t="n">
-        <v>24.06</v>
+        <v>23.532</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>218.8</v>
+        <v>122.38</v>
       </c>
       <c r="D9" t="n">
-        <v>282</v>
+        <v>167.12</v>
       </c>
       <c r="E9" t="n">
-        <v>12.32</v>
+        <v>20.188</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>75.58</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>147.18</v>
+        <v>76.64</v>
       </c>
       <c r="E10" t="n">
-        <v>22.552</v>
+        <v>26.976</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>59.7</v>
+        <v>158.9</v>
       </c>
       <c r="E11" t="n">
-        <v>26.72</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>96.58</v>
+        <v>118.7</v>
       </c>
       <c r="D12" t="n">
-        <v>149.12</v>
+        <v>161.3</v>
       </c>
       <c r="E12" t="n">
-        <v>21.508</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.12</v>
       </c>
       <c r="D13" t="n">
-        <v>50.92</v>
+        <v>231.82</v>
       </c>
       <c r="E13" t="n">
-        <v>27.088</v>
+        <v>16.828</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>147.18</v>
+        <v>158.9</v>
       </c>
       <c r="D14" t="n">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E14" t="n">
-        <v>19.36</v>
+        <v>15.82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>282</v>
+        <v>161.3</v>
       </c>
       <c r="D15" t="n">
-        <v>349.9</v>
+        <v>227.9</v>
       </c>
       <c r="E15" t="n">
-        <v>8.16</v>
+        <v>16.22</v>
       </c>
     </row>
     <row r="16">
@@ -732,17 +732,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>149.12</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>231.62</v>
+        <v>76.5</v>
       </c>
       <c r="E16" t="n">
-        <v>17.368</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -751,17 +751,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>349.9</v>
+        <v>114</v>
       </c>
       <c r="D17" t="n">
-        <v>431.1</v>
+        <v>152.58</v>
       </c>
       <c r="E17" t="n">
-        <v>4.64</v>
+        <v>18.692</v>
       </c>
     </row>
     <row r="18">
@@ -770,55 +770,55 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>230</v>
+        <v>227.9</v>
       </c>
       <c r="D18" t="n">
-        <v>308.02</v>
+        <v>274.66</v>
       </c>
       <c r="E18" t="n">
-        <v>15.668</v>
+        <v>12.684</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>59.7</v>
+        <v>76.5</v>
       </c>
       <c r="D19" t="n">
-        <v>124.06</v>
+        <v>119.82</v>
       </c>
       <c r="E19" t="n">
-        <v>22.404</v>
+        <v>22.308</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>308.02</v>
+        <v>152.58</v>
       </c>
       <c r="D20" t="n">
-        <v>350.28</v>
+        <v>222.98</v>
       </c>
       <c r="E20" t="n">
-        <v>13.072</v>
+        <v>14.772</v>
       </c>
     </row>
     <row r="21">
@@ -827,55 +827,55 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>66.40000000000001</v>
+        <v>236</v>
       </c>
       <c r="D21" t="n">
-        <v>125.14</v>
+        <v>315.3</v>
       </c>
       <c r="E21" t="n">
-        <v>20.316</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>125.14</v>
+        <v>76.64</v>
       </c>
       <c r="D22" t="n">
-        <v>190.34</v>
+        <v>132.6</v>
       </c>
       <c r="E22" t="n">
-        <v>16.416</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>231.62</v>
+        <v>132.6</v>
       </c>
       <c r="D23" t="n">
-        <v>284.78</v>
+        <v>169.72</v>
       </c>
       <c r="E23" t="n">
-        <v>13.672</v>
+        <v>19.928</v>
       </c>
     </row>
     <row r="24">
@@ -884,74 +884,74 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>124.06</v>
+        <v>231.82</v>
       </c>
       <c r="D24" t="n">
-        <v>193.34</v>
+        <v>321.7</v>
       </c>
       <c r="E24" t="n">
-        <v>18.576</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>350.28</v>
+        <v>222.98</v>
       </c>
       <c r="D25" t="n">
-        <v>403</v>
+        <v>268.38</v>
       </c>
       <c r="E25" t="n">
-        <v>9.42</v>
+        <v>11.852</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>431.1</v>
+        <v>321.7</v>
       </c>
       <c r="D26" t="n">
-        <v>493.72</v>
+        <v>370.9</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>9.18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>493.72</v>
+        <v>119.82</v>
       </c>
       <c r="D27" t="n">
-        <v>562</v>
+        <v>199.32</v>
       </c>
       <c r="E27" t="n">
-        <v>24.852</v>
+        <v>17.448</v>
       </c>
     </row>
     <row r="28">
@@ -960,17 +960,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>190.34</v>
+        <v>315.3</v>
       </c>
       <c r="D28" t="n">
-        <v>247.94</v>
+        <v>366.7</v>
       </c>
       <c r="E28" t="n">
-        <v>13.776</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="29">
@@ -979,93 +979,93 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>247.94</v>
+        <v>366.7</v>
       </c>
       <c r="D29" t="n">
-        <v>318.94</v>
+        <v>434.3</v>
       </c>
       <c r="E29" t="n">
-        <v>9.776</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>318.94</v>
+        <v>199.32</v>
       </c>
       <c r="D30" t="n">
-        <v>370.5</v>
+        <v>279.82</v>
       </c>
       <c r="E30" t="n">
-        <v>6.24</v>
+        <v>12.508</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>284.78</v>
+        <v>169.72</v>
       </c>
       <c r="D31" t="n">
-        <v>358.68</v>
+        <v>207.08</v>
       </c>
       <c r="E31" t="n">
-        <v>9.891999999999999</v>
+        <v>17.332</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>50.92</v>
+        <v>274.66</v>
       </c>
       <c r="D32" t="n">
-        <v>137.06</v>
+        <v>355.92</v>
       </c>
       <c r="E32" t="n">
-        <v>22.564</v>
+        <v>9.148</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>137.06</v>
+        <v>279.82</v>
       </c>
       <c r="D33" t="n">
-        <v>212.46</v>
+        <v>363.72</v>
       </c>
       <c r="E33" t="n">
-        <v>17.624</v>
+        <v>8.728</v>
       </c>
     </row>
     <row r="34">
@@ -1078,146 +1078,146 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>212.46</v>
+        <v>207.08</v>
       </c>
       <c r="D34" t="n">
-        <v>287.96</v>
+        <v>297.48</v>
       </c>
       <c r="E34" t="n">
-        <v>12.684</v>
+        <v>12.392</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>287.96</v>
+        <v>268.38</v>
       </c>
       <c r="D35" t="n">
-        <v>353.72</v>
+        <v>328.38</v>
       </c>
       <c r="E35" t="n">
-        <v>8.708</v>
+        <v>9.492000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>353.72</v>
+        <v>355.92</v>
       </c>
       <c r="D36" t="n">
-        <v>415.28</v>
+        <v>424.24</v>
       </c>
       <c r="E36" t="n">
-        <v>5.172</v>
+        <v>5.956</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>193.34</v>
+        <v>328.38</v>
       </c>
       <c r="D37" t="n">
-        <v>255.44</v>
+        <v>416.92</v>
       </c>
       <c r="E37" t="n">
-        <v>14.496</v>
+        <v>6.228</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>403</v>
+        <v>297.48</v>
       </c>
       <c r="D38" t="n">
-        <v>437.9</v>
+        <v>383.42</v>
       </c>
       <c r="E38" t="n">
-        <v>7.06</v>
+        <v>7.868</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>255.44</v>
+        <v>416.92</v>
       </c>
       <c r="D39" t="n">
-        <v>290.4</v>
+        <v>473.16</v>
       </c>
       <c r="E39" t="n">
-        <v>11.64</v>
+        <v>3.204</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>437.9</v>
+        <v>363.72</v>
       </c>
       <c r="D40" t="n">
-        <v>489.44</v>
+        <v>434.44</v>
       </c>
       <c r="E40" t="n">
-        <v>4.036</v>
+        <v>4.256</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>290.4</v>
+        <v>434.44</v>
       </c>
       <c r="D41" t="n">
-        <v>350.76</v>
+        <v>488.04</v>
       </c>
       <c r="E41" t="n">
-        <v>7.224</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="42">
@@ -1226,131 +1226,131 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>358.68</v>
+        <v>488.04</v>
       </c>
       <c r="D42" t="n">
-        <v>413.38</v>
+        <v>573.5700000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>6.532</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>370.5</v>
+        <v>573.5700000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>416.1</v>
+        <v>654.33</v>
       </c>
       <c r="E43" t="n">
-        <v>3.32</v>
+        <v>25.584</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>413.38</v>
+        <v>383.42</v>
       </c>
       <c r="D44" t="n">
-        <v>459.88</v>
+        <v>451.58</v>
       </c>
       <c r="E44" t="n">
-        <v>3.012</v>
+        <v>4.172</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>459.88</v>
+        <v>424.24</v>
       </c>
       <c r="D45" t="n">
-        <v>550.46</v>
+        <v>471.68</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>2.832</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>550.46</v>
+        <v>471.68</v>
       </c>
       <c r="D46" t="n">
-        <v>627.1</v>
+        <v>543.02</v>
       </c>
       <c r="E46" t="n">
-        <v>26.976</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>416.1</v>
+        <v>543.02</v>
       </c>
       <c r="D47" t="n">
-        <v>479.64</v>
+        <v>625.9400000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>0.056</v>
+        <v>26.348</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>479.64</v>
+        <v>625.9400000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>561.33</v>
+        <v>675.9</v>
       </c>
       <c r="E48" t="n">
-        <v>30</v>
+        <v>23.492</v>
       </c>
     </row>
     <row r="49">
@@ -1359,112 +1359,112 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>562</v>
+        <v>473.16</v>
       </c>
       <c r="D49" t="n">
-        <v>632.92</v>
+        <v>573.15</v>
       </c>
       <c r="E49" t="n">
-        <v>20.38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>350.76</v>
+        <v>573.15</v>
       </c>
       <c r="D50" t="n">
-        <v>405.4</v>
+        <v>627.75</v>
       </c>
       <c r="E50" t="n">
-        <v>3.88</v>
+        <v>26.22</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>415.28</v>
+        <v>434.3</v>
       </c>
       <c r="D51" t="n">
-        <v>467.2</v>
+        <v>510.32</v>
       </c>
       <c r="E51" t="n">
-        <v>2.1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>489.44</v>
+        <v>510.32</v>
       </c>
       <c r="D52" t="n">
-        <v>541.36</v>
+        <v>556.24</v>
       </c>
       <c r="E52" t="n">
-        <v>0.964</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>541.36</v>
+        <v>654.33</v>
       </c>
       <c r="D53" t="n">
-        <v>626.03</v>
+        <v>695.9299999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>30</v>
+        <v>22.064</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>467.2</v>
+        <v>370.9</v>
       </c>
       <c r="D54" t="n">
-        <v>549.6</v>
+        <v>431.1</v>
       </c>
       <c r="E54" t="n">
-        <v>30</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="55">
@@ -1473,131 +1473,131 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>549.6</v>
+        <v>451.58</v>
       </c>
       <c r="D55" t="n">
-        <v>619.76</v>
+        <v>492.52</v>
       </c>
       <c r="E55" t="n">
-        <v>27.624</v>
+        <v>1.208</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>405.4</v>
+        <v>492.52</v>
       </c>
       <c r="D56" t="n">
-        <v>470.52</v>
+        <v>586.5</v>
       </c>
       <c r="E56" t="n">
-        <v>0.968</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>470.52</v>
+        <v>556.24</v>
       </c>
       <c r="D57" t="n">
-        <v>550.38</v>
+        <v>625.9400000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>30</v>
+        <v>23.728</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>626.03</v>
+        <v>586.5</v>
       </c>
       <c r="D58" t="n">
-        <v>706.73</v>
+        <v>648.2</v>
       </c>
       <c r="E58" t="n">
-        <v>26.08</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>561.33</v>
+        <v>431.1</v>
       </c>
       <c r="D59" t="n">
-        <v>618.03</v>
+        <v>494.84</v>
       </c>
       <c r="E59" t="n">
-        <v>26.52</v>
+        <v>1.016</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>627.1</v>
+        <v>494.84</v>
       </c>
       <c r="D60" t="n">
-        <v>702.42</v>
+        <v>564.8099999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>23.544</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>619.76</v>
+        <v>627.75</v>
       </c>
       <c r="D61" t="n">
-        <v>660.8</v>
+        <v>678.27</v>
       </c>
       <c r="E61" t="n">
-        <v>24.66</v>
+        <v>23.308</v>
       </c>
     </row>
     <row r="62">
@@ -1606,17 +1606,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>550.38</v>
+        <v>564.8099999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>620.6799999999999</v>
+        <v>639.97</v>
       </c>
       <c r="E62" t="n">
-        <v>26.64</v>
+        <v>27.624</v>
       </c>
     </row>
     <row r="63">
@@ -1625,17 +1625,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>618.03</v>
+        <v>625.9400000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>671.97</v>
+        <v>667.96</v>
       </c>
       <c r="E63" t="n">
-        <v>22.256</v>
+        <v>20.656</v>
       </c>
     </row>
   </sheetData>
